--- a/case1_220324/output_v1.0_220324.xlsx
+++ b/case1_220324/output_v1.0_220324.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="assumption" sheetId="1" r:id="rId1"/>
-    <sheet name="cashflow" sheetId="2" r:id="rId2"/>
-    <sheet name="financing" sheetId="3" r:id="rId3"/>
-    <sheet name="financial_balance" sheetId="4" r:id="rId4"/>
+    <sheet name="valuation" sheetId="2" r:id="rId2"/>
+    <sheet name="cashflow" sheetId="3" r:id="rId3"/>
+    <sheet name="financing" sheetId="4" r:id="rId4"/>
+    <sheet name="financial_balance" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="107">
   <si>
     <t>ASSUMPTION</t>
   </si>
   <si>
-    <t>Written at: 2022.03.24 09:43:51</t>
+    <t>Written at: 2022.03.24 18:53:51</t>
   </si>
   <si>
     <t>output_v1.0_220324.xlsx</t>
@@ -91,6 +92,30 @@
     <t>allin_ttl</t>
   </si>
   <si>
+    <t>VALUATION</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>rntamt</t>
+  </si>
+  <si>
+    <t>dpstamt</t>
+  </si>
+  <si>
+    <t>mngcst</t>
+  </si>
+  <si>
+    <t>NOI</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>valuation</t>
+  </si>
+  <si>
     <t>CASH FLOW</t>
   </si>
   <si>
@@ -280,7 +305,7 @@
     <t>Financial Balance Table</t>
   </si>
   <si>
-    <t>Written at:2022.03.24 09:43:51</t>
+    <t>Written at:2022.03.24 18:53:51</t>
   </si>
   <si>
     <t>Sales</t>
@@ -902,6 +927,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="11" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5480.859600000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2557.73448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4755.859600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>108243.5033688889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -913,7 +1022,7 @@
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -928,174 +1037,174 @@
     </row>
     <row r="6" spans="1:42">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -4443,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>117000</v>
+        <v>108243.5033688889</v>
       </c>
       <c r="G34" s="2">
         <v>60000</v>
@@ -4452,7 +4561,7 @@
         <v>34700</v>
       </c>
       <c r="I34" s="2">
-        <v>28000</v>
+        <v>19243.50336888891</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -4551,7 +4660,7 @@
         <v>16143.76783333334</v>
       </c>
       <c r="AP34" s="2">
-        <v>11872.7</v>
+        <v>3116.203368888906</v>
       </c>
     </row>
     <row r="35" spans="1:42">
@@ -4559,7 +4668,7 @@
         <v>45412</v>
       </c>
       <c r="B35" s="2">
-        <v>11872.7</v>
+        <v>3116.203368888906</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -4679,7 +4788,7 @@
         <v>30</v>
       </c>
       <c r="AP35" s="2">
-        <v>11842.7</v>
+        <v>3086.203368888906</v>
       </c>
     </row>
     <row r="36" spans="1:42">
@@ -4687,7 +4796,7 @@
         <v>45443</v>
       </c>
       <c r="B36" s="2">
-        <v>11842.7</v>
+        <v>3086.203368888906</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -4807,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="2">
-        <v>11842.7</v>
+        <v>3086.203368888906</v>
       </c>
     </row>
     <row r="37" spans="1:42">
@@ -4815,7 +4924,7 @@
         <v>45473</v>
       </c>
       <c r="B37" s="2">
-        <v>11842.7</v>
+        <v>3086.203368888906</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -4935,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="2">
-        <v>11842.7</v>
+        <v>3086.203368888906</v>
       </c>
     </row>
     <row r="38" spans="1:42">
@@ -4943,7 +5052,7 @@
         <v>45504</v>
       </c>
       <c r="B38" s="2">
-        <v>11842.7</v>
+        <v>3086.203368888906</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -5063,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="2">
-        <v>11842.7</v>
+        <v>3086.203368888906</v>
       </c>
     </row>
   </sheetData>
@@ -5071,7 +5180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB39"/>
   <sheetViews>
@@ -5099,125 +5208,125 @@
     </row>
     <row r="6" spans="1:28">
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -7891,7 +8000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C50"/>
   <sheetViews>
@@ -7905,12 +8014,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7920,38 +8029,38 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2">
-        <v>117000</v>
+        <v>108243.5033688889</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="2">
-        <v>117000</v>
+        <v>108243.5033688889</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
         <v>14704</v>
@@ -7959,7 +8068,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2">
         <v>726</v>
@@ -7967,7 +8076,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
@@ -7975,7 +8084,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
@@ -7983,7 +8092,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2">
         <v>15542</v>
@@ -7994,7 +8103,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2">
         <v>66700</v>
@@ -8002,7 +8111,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2">
         <v>66700</v>
@@ -8010,10 +8119,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2">
         <v>1215</v>
@@ -8021,7 +8130,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
@@ -8029,7 +8138,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2">
         <v>980</v>
@@ -8037,7 +8146,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2">
         <v>1152</v>
@@ -8045,7 +8154,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2">
         <v>1968</v>
@@ -8053,7 +8162,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2">
         <v>5375</v>
@@ -8061,10 +8170,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2">
         <v>528</v>
@@ -8072,7 +8181,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2">
         <v>48</v>
@@ -8080,7 +8189,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2">
         <v>28</v>
@@ -8088,7 +8197,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2">
         <v>163</v>
@@ -8096,7 +8205,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2">
         <v>767</v>
@@ -8104,10 +8213,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2">
         <v>1036</v>
@@ -8115,7 +8224,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2">
         <v>500</v>
@@ -8123,7 +8232,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2">
         <v>1536</v>
@@ -8131,10 +8240,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2">
         <v>780</v>
@@ -8142,7 +8251,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2">
         <v>1050</v>
@@ -8150,7 +8259,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
         <v>60</v>
@@ -8158,7 +8267,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
         <v>190</v>
@@ -8166,7 +8275,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
         <v>75</v>
@@ -8174,7 +8283,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2">
         <v>200</v>
@@ -8182,7 +8291,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2">
         <v>2456</v>
@@ -8190,7 +8299,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2">
         <v>573</v>
@@ -8198,7 +8307,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2">
         <v>5384</v>
@@ -8209,7 +8318,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C42" s="2">
         <v>1200</v>
@@ -8217,7 +8326,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2">
         <v>1847.266666666667</v>
@@ -8225,7 +8334,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2">
         <v>166.0333333333334</v>
@@ -8233,7 +8342,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2">
         <v>3213.3</v>
@@ -8244,7 +8353,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2">
         <v>694</v>
@@ -8252,7 +8361,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2">
         <v>5551.999999999999</v>
@@ -8260,7 +8369,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2">
         <v>6245.999999999999</v>
@@ -8268,10 +8377,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2">
         <v>1894</v>
@@ -8279,7 +8388,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="2">

--- a/case1_220324/output_v1.0_220324.xlsx
+++ b/case1_220324/output_v1.0_220324.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KP_Hong/Documents/PyPrjt/[lib]Financial_Model-CashFlow4/case1_220324/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9931E01-40AE-0E49-BF9D-98C5024DEE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assumption" sheetId="1" r:id="rId1"/>
@@ -13,17 +19,29 @@
     <sheet name="financing" sheetId="4" r:id="rId4"/>
     <sheet name="financial_balance" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
   <si>
     <t>ASSUMPTION</t>
   </si>
   <si>
-    <t>Written at: 2022.03.24 18:53:51</t>
+    <t>Written at: 2022.03.24 21:00:00</t>
   </si>
   <si>
     <t>output_v1.0_220324.xlsx</t>
@@ -95,15 +113,111 @@
     <t>VALUATION</t>
   </si>
   <si>
+    <t>Area(m2)</t>
+  </si>
+  <si>
+    <t>exclsv</t>
+  </si>
+  <si>
+    <t>nmlstrg</t>
+  </si>
+  <si>
+    <t>cldstrg</t>
+  </si>
+  <si>
+    <t>canopy</t>
+  </si>
+  <si>
+    <t>berth</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>stair</t>
+  </si>
+  <si>
+    <t>mchnrm</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>passage</t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>ttl</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>ttlfloor</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>nonfloor</t>
+  </si>
+  <si>
+    <t>Area(py)</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>rntunt</t>
+  </si>
+  <si>
+    <t>mngunt</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>rntamt</t>
+  </si>
+  <si>
+    <t>mngamt</t>
+  </si>
+  <si>
+    <t>dpstamt</t>
+  </si>
+  <si>
+    <t>ttlamt</t>
+  </si>
+  <si>
+    <t>rntamty</t>
+  </si>
+  <si>
+    <t>mngamty</t>
+  </si>
+  <si>
+    <t>ttlamty</t>
+  </si>
+  <si>
     <t>Valuation</t>
   </si>
   <si>
-    <t>rntamt</t>
-  </si>
-  <si>
-    <t>dpstamt</t>
-  </si>
-  <si>
     <t>mngcst</t>
   </si>
   <si>
@@ -305,7 +419,7 @@
     <t>Financial Balance Table</t>
   </si>
   <si>
-    <t>Written at:2022.03.24 18:53:51</t>
+    <t>Written at:2022.03.24 21:00:00</t>
   </si>
   <si>
     <t>Sales</t>
@@ -344,17 +458,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -362,15 +475,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -397,21 +517,29 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,9 +613,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,6 +665,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,14 +858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="11" width="12.7109375" customWidth="1"/>
+    <col min="1" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -860,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C22" s="4">
         <v>0.08</v>
@@ -871,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -882,10 +1046,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="4">
-        <v>0.05323076923076923</v>
+        <v>5.3230769230769227E-2</v>
       </c>
       <c r="C24" s="4">
-        <v>0.08923076923076924</v>
+        <v>8.9230769230769238E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -917,112 +1081,1476 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>0.06642189911461294</v>
+        <v>6.6421899114612937E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="11" width="12.7109375" customWidth="1"/>
+    <col min="1" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:15">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2">
-        <v>5480.859600000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2">
-        <v>2557.73448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2">
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8481.27</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1610.59</v>
+      </c>
+      <c r="G9" s="2">
+        <v>685.55</v>
+      </c>
+      <c r="H9" s="2">
+        <v>197.61</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1731.67</v>
+      </c>
+      <c r="J9" s="2">
+        <v>12706.69</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2302.9899999999998</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2302.9899999999998</v>
+      </c>
+      <c r="N9" s="2">
+        <v>15009.68</v>
+      </c>
+      <c r="O9" s="2">
+        <v>11366.09069568399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9526.66</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>289.05</v>
+      </c>
+      <c r="H10" s="2">
+        <v>219.51</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10035.219999999999</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10035.219999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>10392.802989984701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8665.99</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1576.62</v>
+      </c>
+      <c r="G11" s="2">
+        <v>243.8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>241</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10727.41</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2213.7399999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2213.7399999999998</v>
+      </c>
+      <c r="N11" s="2">
+        <v>12941.15</v>
+      </c>
+      <c r="O11" s="2">
+        <v>11109.657658007671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8920.76</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1289.95</v>
+      </c>
+      <c r="G12" s="2">
+        <v>75.77</v>
+      </c>
+      <c r="H12" s="2">
+        <v>219.51</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10505.99</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>10505.99</v>
+      </c>
+      <c r="O12" s="2">
+        <v>10880.34784337059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4621.3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>672.06</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>64.52</v>
+      </c>
+      <c r="H13" s="2">
+        <v>125.16</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5483.0400000000009</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5483.0400000000009</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5678.4160692247606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22208.05</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18007.93</v>
+      </c>
+      <c r="E14" s="2">
+        <v>672.06</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4477.16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1358.69</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1002.79</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1731.67</v>
+      </c>
+      <c r="J14" s="2">
+        <v>49458.35</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4516.7299999999996</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4516.7299999999996</v>
+      </c>
+      <c r="N14" s="2">
+        <v>53975.080000000009</v>
+      </c>
+      <c r="O14" s="2">
+        <v>49427.315256271708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>870.96</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>870.96</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1737.88</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1737.88</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2608.84</v>
+      </c>
+      <c r="O15" s="2">
+        <v>901.99474372829627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1849.31</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1849.31</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1849.31</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>870.96</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>870.96</v>
+      </c>
+      <c r="K17" s="2">
+        <v>3587.19</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3587.19</v>
+      </c>
+      <c r="N17" s="2">
+        <v>4458.1499999999996</v>
+      </c>
+      <c r="O17" s="2">
+        <v>901.99474372829627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22208.05</v>
+      </c>
+      <c r="D18" s="2">
+        <v>18007.93</v>
+      </c>
+      <c r="E18" s="2">
+        <v>672.06</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5348.12</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1358.69</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1002.79</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1731.67</v>
+      </c>
+      <c r="J18" s="2">
+        <v>50329.31</v>
+      </c>
+      <c r="K18" s="2">
+        <v>8103.92</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>8103.92</v>
+      </c>
+      <c r="N18" s="2">
+        <v>58433.23</v>
+      </c>
+      <c r="O18" s="2">
+        <v>50329.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2565.58</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>487.2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>207.38</v>
+      </c>
+      <c r="H23" s="2">
+        <v>59.78</v>
+      </c>
+      <c r="I23" s="2">
+        <v>523.83000000000004</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3843.77</v>
+      </c>
+      <c r="K23" s="2">
+        <v>696.65</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>696.65</v>
+      </c>
+      <c r="N23" s="2">
+        <v>4540.4199999999992</v>
+      </c>
+      <c r="O23" s="2">
+        <v>3438.238768514324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2881.81</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>87.44</v>
+      </c>
+      <c r="H24" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3035.65</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3035.65</v>
+      </c>
+      <c r="O24" s="2">
+        <v>3143.8187189047112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2621.46</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>476.93</v>
+      </c>
+      <c r="G25" s="2">
+        <v>73.75</v>
+      </c>
+      <c r="H25" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3245.04</v>
+      </c>
+      <c r="K25" s="2">
+        <v>669.66</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>669.66</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3914.7</v>
+      </c>
+      <c r="O25" s="2">
+        <v>3360.6698715578359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2698.53</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>390.21</v>
+      </c>
+      <c r="G26" s="2">
+        <v>22.92</v>
+      </c>
+      <c r="H26" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3178.06</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>3178.06</v>
+      </c>
+      <c r="O26" s="2">
+        <v>3291.3031864023551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1397.94</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>203.3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>19.52</v>
+      </c>
+      <c r="H27" s="2">
+        <v>37.86</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1658.62</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1658.62</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1717.7212799728991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6717.93</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5447.3899999999994</v>
+      </c>
+      <c r="E28" s="2">
+        <v>203.3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1354.34</v>
+      </c>
+      <c r="G28" s="2">
+        <v>411.01</v>
+      </c>
+      <c r="H28" s="2">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="I28" s="2">
+        <v>523.83000000000004</v>
+      </c>
+      <c r="J28" s="2">
+        <v>14961.14</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1366.31</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1366.31</v>
+      </c>
+      <c r="N28" s="2">
+        <v>16327.45</v>
+      </c>
+      <c r="O28" s="2">
+        <v>14951.751825352119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>263.47000000000003</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>263.47000000000003</v>
+      </c>
+      <c r="K29" s="2">
+        <v>525.71</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>525.71</v>
+      </c>
+      <c r="N29" s="2">
+        <v>789.18000000000006</v>
+      </c>
+      <c r="O29" s="2">
+        <v>272.85817464787579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>559.41999999999996</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>559.41999999999996</v>
+      </c>
+      <c r="N30" s="2">
+        <v>559.41999999999996</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>263.47000000000003</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>263.47000000000003</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1085.1300000000001</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1085.1300000000001</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1348.6</v>
+      </c>
+      <c r="O31" s="2">
+        <v>272.85817464787579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6717.93</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5447.3899999999994</v>
+      </c>
+      <c r="E32" s="2">
+        <v>203.3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1617.81</v>
+      </c>
+      <c r="G32" s="2">
+        <v>411.01</v>
+      </c>
+      <c r="H32" s="2">
+        <v>303.33999999999997</v>
+      </c>
+      <c r="I32" s="2">
+        <v>523.83000000000004</v>
+      </c>
+      <c r="J32" s="2">
+        <v>15224.61</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2451.44</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2451.44</v>
+      </c>
+      <c r="N32" s="2">
+        <v>17676.05</v>
+      </c>
+      <c r="O32" s="2">
+        <v>15224.61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3438.238768514324</v>
+      </c>
+      <c r="E36" s="2">
+        <v>96.270685518401066</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6.8764775370286477</v>
+      </c>
+      <c r="G36" s="2">
+        <v>577.62411311040637</v>
+      </c>
+      <c r="H36" s="2">
+        <v>103.1471630554297</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1155.248226220813</v>
+      </c>
+      <c r="J36" s="2">
+        <v>82.517730444343769</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1237.7659566651571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3416.676893552587</v>
+      </c>
+      <c r="E37" s="2">
+        <v>95.66695301947243</v>
+      </c>
+      <c r="F37" s="2">
+        <v>6.8333537871051737</v>
+      </c>
+      <c r="G37" s="2">
+        <v>574.00171811683458</v>
+      </c>
+      <c r="H37" s="2">
+        <v>102.5003068065776</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1148.0034362336689</v>
+      </c>
+      <c r="J37" s="2">
+        <v>82.000245445262081</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1230.0036816789309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3360.6698715578359</v>
+      </c>
+      <c r="E38" s="2">
+        <v>94.098756403619404</v>
+      </c>
+      <c r="F38" s="2">
+        <v>6.7213397431156716</v>
+      </c>
+      <c r="G38" s="2">
+        <v>564.59253842171643</v>
+      </c>
+      <c r="H38" s="2">
+        <v>100.8200961467351</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1129.1850768434331</v>
+      </c>
+      <c r="J38" s="2">
+        <v>80.656076917388063</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1209.841153760821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3291.3031864023551</v>
+      </c>
+      <c r="E39" s="2">
+        <v>92.156489219265922</v>
+      </c>
+      <c r="F39" s="2">
+        <v>6.5826063728047099</v>
+      </c>
+      <c r="G39" s="2">
+        <v>552.93893531559547</v>
+      </c>
+      <c r="H39" s="2">
+        <v>98.739095592070626</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1105.8778706311909</v>
+      </c>
+      <c r="J39" s="2">
+        <v>78.991276473656512</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1184.869147104848</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1717.7212799728991</v>
+      </c>
+      <c r="E40" s="2">
+        <v>48.096195839241183</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.4354425599457978</v>
+      </c>
+      <c r="G40" s="2">
+        <v>288.57717503544711</v>
+      </c>
+      <c r="H40" s="2">
+        <v>51.531638399186981</v>
+      </c>
+      <c r="I40" s="2">
+        <v>577.15435007089422</v>
+      </c>
+      <c r="J40" s="2">
+        <v>41.225310719349579</v>
+      </c>
+      <c r="K40" s="2">
+        <v>618.37966079024375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="D41" s="2">
+        <f>SUM(D36:D40)</f>
+        <v>15224.61</v>
+      </c>
+      <c r="E41" s="2">
+        <f>SUM(E36:E40)</f>
+        <v>426.28908000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <f>SUM(F36:F40)</f>
+        <v>30.449220000000004</v>
+      </c>
+      <c r="G41" s="2">
+        <f>SUM(G36:G40)</f>
+        <v>2557.7344800000001</v>
+      </c>
+      <c r="H41" s="2">
+        <f>SUM(H36:H40)</f>
+        <v>456.73830000000004</v>
+      </c>
+      <c r="I41" s="2">
+        <f>SUM(I36:I40)</f>
+        <v>5115.4689600000002</v>
+      </c>
+      <c r="J41" s="2">
+        <f>SUM(J36:J40)</f>
+        <v>365.39064000000002</v>
+      </c>
+      <c r="K41" s="2">
+        <f>SUM(K36:K40)</f>
+        <v>5480.8596000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5480.8596000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2557.7344800000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="2">
         <v>725</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4755.859600000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2">
-        <v>108243.5033688889</v>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4755.8596000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2">
+        <v>108243.50336888889</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:42">
@@ -1037,174 +2565,174 @@
     </row>
     <row r="6" spans="1:42">
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -1632,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O11" s="2">
         <v>10</v>
@@ -1650,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>357.1785</v>
+        <v>357.17849999999999</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -1713,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="AO11" s="2">
-        <v>710.5118333333334</v>
+        <v>710.51183333333336</v>
       </c>
       <c r="AP11" s="2">
-        <v>9297.488166666666</v>
+        <v>9297.4881666666661</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -1724,7 +3252,7 @@
         <v>44712</v>
       </c>
       <c r="B12" s="2">
-        <v>9297.488166666666</v>
+        <v>9297.4881666666661</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -1760,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O12" s="2">
         <v>10</v>
@@ -1844,7 +3372,7 @@
         <v>1594.953833333333</v>
       </c>
       <c r="AP12" s="2">
-        <v>7702.534333333333</v>
+        <v>7702.5343333333331</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -1852,7 +3380,7 @@
         <v>44742</v>
       </c>
       <c r="B13" s="2">
-        <v>7702.534333333333</v>
+        <v>7702.5343333333331</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1888,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O13" s="2">
         <v>10</v>
@@ -1906,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>1451.392</v>
+        <v>1451.3920000000001</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -1969,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="AO13" s="2">
-        <v>1804.725333333333</v>
+        <v>1804.7253333333331</v>
       </c>
       <c r="AP13" s="2">
-        <v>5897.808999999999</v>
+        <v>5897.8089999999993</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -1980,7 +3508,7 @@
         <v>44773</v>
       </c>
       <c r="B14" s="2">
-        <v>5897.808999999999</v>
+        <v>5897.8089999999993</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2016,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O14" s="2">
         <v>10</v>
@@ -2097,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>2178.912333333333</v>
+        <v>2178.9123333333332</v>
       </c>
       <c r="AP14" s="2">
-        <v>3718.896666666666</v>
+        <v>3718.8966666666661</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -2108,7 +3636,7 @@
         <v>44804</v>
       </c>
       <c r="B15" s="2">
-        <v>3718.896666666666</v>
+        <v>3718.8966666666661</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -2144,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -2162,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>2114.7235</v>
+        <v>2114.7235000000001</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -2272,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O16" s="2">
         <v>10</v>
@@ -2290,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <v>2313.156</v>
+        <v>2313.1559999999999</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -2356,7 +3884,7 @@
         <v>2666.489333333333</v>
       </c>
       <c r="AP16" s="2">
-        <v>84.3504999999991</v>
+        <v>84.350499999999101</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -2364,7 +3892,7 @@
         <v>44865</v>
       </c>
       <c r="B17" s="2">
-        <v>84.3504999999991</v>
+        <v>84.350499999999101</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -2400,7 +3928,7 @@
         <v>5.5</v>
       </c>
       <c r="N17" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O17" s="2">
         <v>9.75</v>
@@ -2418,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <v>2415.207</v>
+        <v>2415.2069999999999</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -2481,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="2">
-        <v>2773.790333333333</v>
+        <v>2773.7903333333329</v>
       </c>
       <c r="AP17" s="2">
         <v>10.56016666666574</v>
@@ -2528,10 +4056,10 @@
         <v>15.4</v>
       </c>
       <c r="N18" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O18" s="2">
-        <v>9.299999999999999</v>
+        <v>9.2999999999999989</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -2546,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <v>2454.8935</v>
+        <v>2454.8935000000001</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -2612,7 +4140,7 @@
         <v>2822.926833333333</v>
       </c>
       <c r="AP18" s="2">
-        <v>87.6333333333323</v>
+        <v>87.633333333332303</v>
       </c>
     </row>
     <row r="19" spans="1:42">
@@ -2620,7 +4148,7 @@
         <v>44926</v>
       </c>
       <c r="B19" s="2">
-        <v>87.6333333333323</v>
+        <v>87.633333333332303</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -2653,13 +4181,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>26.03333333333333</v>
+        <v>26.033333333333331</v>
       </c>
       <c r="N19" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O19" s="2">
-        <v>8.816666666666666</v>
+        <v>8.8166666666666664</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
@@ -2674,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>2505.919</v>
+        <v>2505.9189999999999</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -2737,10 +4265,10 @@
         <v>0</v>
       </c>
       <c r="AO19" s="2">
-        <v>2884.102333333334</v>
+        <v>2884.1023333333342</v>
       </c>
       <c r="AP19" s="2">
-        <v>3.530999999998585</v>
+        <v>3.5309999999985848</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -2748,7 +4276,7 @@
         <v>44957</v>
       </c>
       <c r="B20" s="2">
-        <v>3.530999999998585</v>
+        <v>3.5309999999985848</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -2781,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="N20" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O20" s="2">
         <v>8.35</v>
@@ -2802,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <v>2619.309</v>
+        <v>2619.3090000000002</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -2865,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="AO20" s="2">
-        <v>3007.292333333333</v>
+        <v>3007.2923333333329</v>
       </c>
       <c r="AP20" s="2">
-        <v>96.23866666666527</v>
+        <v>96.238666666665267</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -2876,7 +4404,7 @@
         <v>44985</v>
       </c>
       <c r="B21" s="2">
-        <v>96.23866666666527</v>
+        <v>96.238666666665267</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -2909,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>47.66666666666666</v>
+        <v>47.666666666666657</v>
       </c>
       <c r="N21" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O21" s="2">
         <v>7.833333333333333</v>
@@ -2930,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="2">
-        <v>2789.394</v>
+        <v>2789.3939999999998</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -2993,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="AO21" s="2">
-        <v>3188.227333333334</v>
+        <v>3188.2273333333342</v>
       </c>
       <c r="AP21" s="2">
-        <v>8.01133333333155</v>
+        <v>8.0113333333315495</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -3004,7 +4532,7 @@
         <v>45016</v>
       </c>
       <c r="B22" s="2">
-        <v>8.01133333333155</v>
+        <v>8.0113333333315495</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -3037,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>59.03333333333333</v>
+        <v>59.033333333333331</v>
       </c>
       <c r="N22" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O22" s="2">
-        <v>7.316666666666666</v>
+        <v>7.3166666666666664</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -3058,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <v>2891.445</v>
+        <v>2891.4450000000002</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -3121,10 +4649,10 @@
         <v>0</v>
       </c>
       <c r="AO22" s="2">
-        <v>3301.128333333333</v>
+        <v>3301.1283333333331</v>
       </c>
       <c r="AP22" s="2">
-        <v>6.882999999998447</v>
+        <v>6.8829999999984466</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -3132,7 +4660,7 @@
         <v>45046</v>
       </c>
       <c r="B23" s="2">
-        <v>6.882999999998447</v>
+        <v>6.8829999999984466</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -3165,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>71.13333333333333</v>
+        <v>71.133333333333326</v>
       </c>
       <c r="N23" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O23" s="2">
-        <v>6.766666666666667</v>
+        <v>6.7666666666666666</v>
       </c>
       <c r="P23" s="2">
         <v>0</v>
@@ -3252,7 +4780,7 @@
         <v>3346.695333333334</v>
       </c>
       <c r="AP23" s="2">
-        <v>60.18766666666488</v>
+        <v>60.187666666664882</v>
       </c>
     </row>
     <row r="24" spans="1:42">
@@ -3260,7 +4788,7 @@
         <v>45077</v>
       </c>
       <c r="B24" s="2">
-        <v>60.18766666666488</v>
+        <v>60.187666666664882</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -3293,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>83.59999999999999</v>
+        <v>83.6</v>
       </c>
       <c r="N24" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O24" s="2">
         <v>6.2</v>
@@ -3377,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="2">
-        <v>3364.264833333333</v>
+        <v>3364.2648333333332</v>
       </c>
       <c r="AP24" s="2">
         <v>95.92283333333171</v>
@@ -3421,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>96.06666666666666</v>
+        <v>96.066666666666663</v>
       </c>
       <c r="N25" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O25" s="2">
-        <v>5.633333333333333</v>
+        <v>5.6333333333333329</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -3505,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="2">
-        <v>3376.164833333333</v>
+        <v>3376.1648333333328</v>
       </c>
       <c r="AP25" s="2">
         <v>19.75799999999845</v>
@@ -3552,7 +5080,7 @@
         <v>108.1666666666667</v>
       </c>
       <c r="N26" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O26" s="2">
         <v>5.083333333333333</v>
@@ -3570,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <v>2953.8095</v>
+        <v>2953.8094999999998</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
@@ -3633,10 +5161,10 @@
         <v>0</v>
       </c>
       <c r="AO26" s="2">
-        <v>3410.392833333333</v>
+        <v>3410.3928333333329</v>
       </c>
       <c r="AP26" s="2">
-        <v>9.365166666665118</v>
+        <v>9.3651666666651181</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -3644,7 +5172,7 @@
         <v>45169</v>
       </c>
       <c r="B27" s="2">
-        <v>9.365166666665118</v>
+        <v>9.3651666666651181</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -3680,10 +5208,10 @@
         <v>120.6333333333333</v>
       </c>
       <c r="N27" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O27" s="2">
-        <v>4.516666666666667</v>
+        <v>4.5166666666666666</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -3698,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>2965.1485</v>
+        <v>2965.1484999999998</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -3761,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="AO27" s="2">
-        <v>3433.631833333333</v>
+        <v>3433.6318333333329</v>
       </c>
       <c r="AP27" s="2">
-        <v>75.73333333333176</v>
+        <v>75.733333333331757</v>
       </c>
     </row>
     <row r="28" spans="1:42">
@@ -3772,7 +5300,7 @@
         <v>45199</v>
       </c>
       <c r="B28" s="2">
-        <v>75.73333333333176</v>
+        <v>75.733333333331757</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -3808,10 +5336,10 @@
         <v>133.4666666666667</v>
       </c>
       <c r="N28" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O28" s="2">
-        <v>3.933333333333333</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
@@ -3889,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="AO28" s="2">
-        <v>3576.280333333334</v>
+        <v>3576.2803333333341</v>
       </c>
       <c r="AP28" s="2">
-        <v>99.45299999999816</v>
+        <v>99.452999999998156</v>
       </c>
     </row>
     <row r="29" spans="1:42">
@@ -3900,7 +5428,7 @@
         <v>45230</v>
       </c>
       <c r="B29" s="2">
-        <v>99.45299999999816</v>
+        <v>99.452999999998156</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -3933,10 +5461,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>146.6666666666667</v>
+        <v>146.66666666666671</v>
       </c>
       <c r="N29" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O29" s="2">
         <v>3.333333333333333</v>
@@ -4064,10 +5592,10 @@
         <v>159.1333333333333</v>
       </c>
       <c r="N30" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O30" s="2">
-        <v>2.766666666666667</v>
+        <v>2.7666666666666671</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -4082,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="2">
-        <v>2437.885</v>
+        <v>2437.8850000000002</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
@@ -4145,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="AO30" s="2">
-        <v>2943.118333333333</v>
+        <v>2943.1183333333329</v>
       </c>
       <c r="AP30" s="2">
-        <v>58.16633333333129</v>
+        <v>58.166333333331288</v>
       </c>
     </row>
     <row r="31" spans="1:42">
@@ -4156,7 +5684,7 @@
         <v>45291</v>
       </c>
       <c r="B31" s="2">
-        <v>58.16633333333129</v>
+        <v>58.166333333331288</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -4192,10 +5720,10 @@
         <v>170.1333333333333</v>
       </c>
       <c r="N31" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O31" s="2">
-        <v>2.266666666666667</v>
+        <v>2.2666666666666671</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -4276,7 +5804,7 @@
         <v>2641.795833333334</v>
       </c>
       <c r="AP31" s="2">
-        <v>16.37049999999772</v>
+        <v>16.370499999997719</v>
       </c>
     </row>
     <row r="32" spans="1:42">
@@ -4284,7 +5812,7 @@
         <v>45322</v>
       </c>
       <c r="B32" s="2">
-        <v>16.37049999999772</v>
+        <v>16.370499999997719</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -4317,10 +5845,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>179.6666666666667</v>
+        <v>179.66666666666671</v>
       </c>
       <c r="N32" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O32" s="2">
         <v>1.833333333333333</v>
@@ -4404,7 +5932,7 @@
         <v>2650.895833333333</v>
       </c>
       <c r="AP32" s="2">
-        <v>65.47466666666423</v>
+        <v>65.474666666664234</v>
       </c>
     </row>
     <row r="33" spans="1:42">
@@ -4412,7 +5940,7 @@
         <v>45351</v>
       </c>
       <c r="B33" s="2">
-        <v>65.47466666666423</v>
+        <v>65.474666666664234</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -4445,13 +5973,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>189.5666666666667</v>
+        <v>189.56666666666669</v>
       </c>
       <c r="N33" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O33" s="2">
-        <v>1.383333333333333</v>
+        <v>1.3833333333333331</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -4466,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>2114.7235</v>
+        <v>2114.7235000000001</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -4529,10 +6057,10 @@
         <v>0</v>
       </c>
       <c r="AO33" s="2">
-        <v>2649.006833333333</v>
+        <v>2649.0068333333329</v>
       </c>
       <c r="AP33" s="2">
-        <v>16.46783333333087</v>
+        <v>16.467833333330869</v>
       </c>
     </row>
     <row r="34" spans="1:42">
@@ -4540,7 +6068,7 @@
         <v>45382</v>
       </c>
       <c r="B34" s="2">
-        <v>16.46783333333087</v>
+        <v>16.467833333330869</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -4552,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>108243.5033688889</v>
+        <v>108243.50336888889</v>
       </c>
       <c r="G34" s="2">
         <v>60000</v>
@@ -4561,7 +6089,7 @@
         <v>34700</v>
       </c>
       <c r="I34" s="2">
-        <v>19243.50336888891</v>
+        <v>19243.503368888909</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -4576,7 +6104,7 @@
         <v>199.1</v>
       </c>
       <c r="N34" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="O34" s="2">
         <v>0.95</v>
@@ -4657,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="2">
-        <v>16143.76783333334</v>
+        <v>16143.767833333341</v>
       </c>
       <c r="AP34" s="2">
         <v>3116.203368888906</v>
@@ -5176,19 +6704,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -5208,125 +6737,125 @@
     </row>
     <row r="6" spans="1:28">
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -5640,10 +7169,10 @@
         <v>-34700</v>
       </c>
       <c r="R12" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S12" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -5726,10 +7255,10 @@
         <v>-34700</v>
       </c>
       <c r="R13" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S13" s="2">
-        <v>462.6666666666667</v>
+        <v>462.66666666666669</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
@@ -5812,7 +7341,7 @@
         <v>-34700</v>
       </c>
       <c r="R14" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S14" s="2">
         <v>694</v>
@@ -5898,10 +7427,10 @@
         <v>-34700</v>
       </c>
       <c r="R15" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S15" s="2">
-        <v>925.3333333333334</v>
+        <v>925.33333333333337</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
@@ -5984,7 +7513,7 @@
         <v>-34700</v>
       </c>
       <c r="R16" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S16" s="2">
         <v>1156.666666666667</v>
@@ -6070,7 +7599,7 @@
         <v>-34700</v>
       </c>
       <c r="R17" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S17" s="2">
         <v>1388</v>
@@ -6156,7 +7685,7 @@
         <v>-34700</v>
       </c>
       <c r="R18" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S18" s="2">
         <v>1619.333333333333</v>
@@ -6221,7 +7750,7 @@
         <v>1200</v>
       </c>
       <c r="K19" s="2">
-        <v>9.299999999999999</v>
+        <v>9.2999999999999989</v>
       </c>
       <c r="L19" s="2">
         <v>89.05</v>
@@ -6242,7 +7771,7 @@
         <v>-34700</v>
       </c>
       <c r="R19" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S19" s="2">
         <v>1850.666666666667</v>
@@ -6295,7 +7824,7 @@
         <v>-9900</v>
       </c>
       <c r="G20" s="2">
-        <v>26.03333333333333</v>
+        <v>26.033333333333331</v>
       </c>
       <c r="H20" s="2">
         <v>46.93333333333333</v>
@@ -6307,7 +7836,7 @@
         <v>1200</v>
       </c>
       <c r="K20" s="2">
-        <v>8.816666666666666</v>
+        <v>8.8166666666666664</v>
       </c>
       <c r="L20" s="2">
         <v>97.86666666666666</v>
@@ -6328,7 +7857,7 @@
         <v>-34700</v>
       </c>
       <c r="R20" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S20" s="2">
         <v>2082</v>
@@ -6381,7 +7910,7 @@
         <v>-13000</v>
       </c>
       <c r="G21" s="2">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="H21" s="2">
         <v>83.23333333333332</v>
@@ -6414,7 +7943,7 @@
         <v>-34700</v>
       </c>
       <c r="R21" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S21" s="2">
         <v>2313.333333333333</v>
@@ -6467,7 +7996,7 @@
         <v>-16100</v>
       </c>
       <c r="G22" s="2">
-        <v>47.66666666666666</v>
+        <v>47.666666666666657</v>
       </c>
       <c r="H22" s="2">
         <v>130.9</v>
@@ -6500,7 +8029,7 @@
         <v>-34700</v>
       </c>
       <c r="R22" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S22" s="2">
         <v>2544.666666666667</v>
@@ -6553,10 +8082,10 @@
         <v>-19400</v>
       </c>
       <c r="G23" s="2">
-        <v>59.03333333333333</v>
+        <v>59.033333333333331</v>
       </c>
       <c r="H23" s="2">
-        <v>189.9333333333333</v>
+        <v>189.93333333333331</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -6565,7 +8094,7 @@
         <v>1200</v>
       </c>
       <c r="K23" s="2">
-        <v>7.316666666666666</v>
+        <v>7.3166666666666664</v>
       </c>
       <c r="L23" s="2">
         <v>121.3666666666666</v>
@@ -6586,7 +8115,7 @@
         <v>-34700</v>
       </c>
       <c r="R23" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S23" s="2">
         <v>2776</v>
@@ -6639,10 +8168,10 @@
         <v>-22800</v>
       </c>
       <c r="G24" s="2">
-        <v>71.13333333333333</v>
+        <v>71.133333333333326</v>
       </c>
       <c r="H24" s="2">
-        <v>261.0666666666666</v>
+        <v>261.06666666666661</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -6651,7 +8180,7 @@
         <v>1200</v>
       </c>
       <c r="K24" s="2">
-        <v>6.766666666666667</v>
+        <v>6.7666666666666666</v>
       </c>
       <c r="L24" s="2">
         <v>128.1333333333333</v>
@@ -6672,10 +8201,10 @@
         <v>-34700</v>
       </c>
       <c r="R24" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S24" s="2">
-        <v>3007.333333333334</v>
+        <v>3007.3333333333339</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -6725,10 +8254,10 @@
         <v>-26200</v>
       </c>
       <c r="G25" s="2">
-        <v>83.59999999999999</v>
+        <v>83.6</v>
       </c>
       <c r="H25" s="2">
-        <v>344.6666666666666</v>
+        <v>344.66666666666657</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -6740,7 +8269,7 @@
         <v>6.2</v>
       </c>
       <c r="L25" s="2">
-        <v>134.3333333333333</v>
+        <v>134.33333333333329</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -6758,7 +8287,7 @@
         <v>-34700</v>
       </c>
       <c r="R25" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S25" s="2">
         <v>3238.666666666667</v>
@@ -6811,10 +8340,10 @@
         <v>-29500</v>
       </c>
       <c r="G26" s="2">
-        <v>96.06666666666666</v>
+        <v>96.066666666666663</v>
       </c>
       <c r="H26" s="2">
-        <v>440.7333333333333</v>
+        <v>440.73333333333329</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -6823,10 +8352,10 @@
         <v>1200</v>
       </c>
       <c r="K26" s="2">
-        <v>5.633333333333333</v>
+        <v>5.6333333333333329</v>
       </c>
       <c r="L26" s="2">
-        <v>139.9666666666666</v>
+        <v>139.96666666666661</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6844,10 +8373,10 @@
         <v>-34700</v>
       </c>
       <c r="R26" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S26" s="2">
-        <v>3470.000000000001</v>
+        <v>3470.0000000000009</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -6912,7 +8441,7 @@
         <v>5.083333333333333</v>
       </c>
       <c r="L27" s="2">
-        <v>145.05</v>
+        <v>145.05000000000001</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -6930,10 +8459,10 @@
         <v>-34700</v>
       </c>
       <c r="R27" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S27" s="2">
-        <v>3701.333333333334</v>
+        <v>3701.3333333333339</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
@@ -6995,10 +8524,10 @@
         <v>1200</v>
       </c>
       <c r="K28" s="2">
-        <v>4.516666666666667</v>
+        <v>4.5166666666666666</v>
       </c>
       <c r="L28" s="2">
-        <v>149.5666666666667</v>
+        <v>149.56666666666669</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -7016,10 +8545,10 @@
         <v>-34700</v>
       </c>
       <c r="R28" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S28" s="2">
-        <v>3932.666666666668</v>
+        <v>3932.6666666666679</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
@@ -7081,7 +8610,7 @@
         <v>1200</v>
       </c>
       <c r="K29" s="2">
-        <v>3.933333333333333</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="L29" s="2">
         <v>153.5</v>
@@ -7102,10 +8631,10 @@
         <v>-34700</v>
       </c>
       <c r="R29" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S29" s="2">
-        <v>4164.000000000001</v>
+        <v>4164.0000000000009</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
@@ -7155,10 +8684,10 @@
         <v>-43400</v>
       </c>
       <c r="G30" s="2">
-        <v>146.6666666666667</v>
+        <v>146.66666666666671</v>
       </c>
       <c r="H30" s="2">
-        <v>949.6666666666666</v>
+        <v>949.66666666666663</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -7170,7 +8699,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="L30" s="2">
-        <v>156.8333333333333</v>
+        <v>156.83333333333329</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -7188,10 +8717,10 @@
         <v>-34700</v>
       </c>
       <c r="R30" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S30" s="2">
-        <v>4395.333333333334</v>
+        <v>4395.3333333333339</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
@@ -7253,7 +8782,7 @@
         <v>1200</v>
       </c>
       <c r="K31" s="2">
-        <v>2.766666666666667</v>
+        <v>2.7666666666666671</v>
       </c>
       <c r="L31" s="2">
         <v>159.6</v>
@@ -7274,7 +8803,7 @@
         <v>-34700</v>
       </c>
       <c r="R31" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S31" s="2">
         <v>4626.666666666667</v>
@@ -7330,7 +8859,7 @@
         <v>170.1333333333333</v>
       </c>
       <c r="H32" s="2">
-        <v>1278.933333333333</v>
+        <v>1278.9333333333329</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -7339,7 +8868,7 @@
         <v>1200</v>
       </c>
       <c r="K32" s="2">
-        <v>2.266666666666667</v>
+        <v>2.2666666666666671</v>
       </c>
       <c r="L32" s="2">
         <v>161.8666666666667</v>
@@ -7360,7 +8889,7 @@
         <v>-34700</v>
       </c>
       <c r="R32" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S32" s="2">
         <v>4858</v>
@@ -7413,7 +8942,7 @@
         <v>-51700</v>
       </c>
       <c r="G33" s="2">
-        <v>179.6666666666667</v>
+        <v>179.66666666666671</v>
       </c>
       <c r="H33" s="2">
         <v>1458.6</v>
@@ -7428,7 +8957,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="L33" s="2">
-        <v>163.7</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -7446,7 +8975,7 @@
         <v>-34700</v>
       </c>
       <c r="R33" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S33" s="2">
         <v>5089.333333333333</v>
@@ -7499,7 +9028,7 @@
         <v>-54300</v>
       </c>
       <c r="G34" s="2">
-        <v>189.5666666666667</v>
+        <v>189.56666666666669</v>
       </c>
       <c r="H34" s="2">
         <v>1648.166666666667</v>
@@ -7511,7 +9040,7 @@
         <v>1200</v>
       </c>
       <c r="K34" s="2">
-        <v>1.383333333333333</v>
+        <v>1.3833333333333331</v>
       </c>
       <c r="L34" s="2">
         <v>165.0833333333334</v>
@@ -7532,10 +9061,10 @@
         <v>-34700</v>
       </c>
       <c r="R34" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S34" s="2">
-        <v>5320.666666666666</v>
+        <v>5320.6666666666661</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -7588,7 +9117,7 @@
         <v>199.1</v>
       </c>
       <c r="H35" s="2">
-        <v>1847.266666666667</v>
+        <v>1847.2666666666671</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -7600,7 +9129,7 @@
         <v>0.95</v>
       </c>
       <c r="L35" s="2">
-        <v>166.0333333333334</v>
+        <v>166.03333333333339</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -7618,10 +9147,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <v>231.3333333333333</v>
+        <v>231.33333333333329</v>
       </c>
       <c r="S35" s="2">
-        <v>5551.999999999999</v>
+        <v>5551.9999999999991</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
@@ -7674,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>1847.266666666667</v>
+        <v>1847.2666666666671</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -7686,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>166.0333333333334</v>
+        <v>166.03333333333339</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -7707,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <v>5551.999999999999</v>
+        <v>5551.9999999999991</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -7760,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>1847.266666666667</v>
+        <v>1847.2666666666671</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -7772,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>166.0333333333334</v>
+        <v>166.03333333333339</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -7793,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="2">
-        <v>5551.999999999999</v>
+        <v>5551.9999999999991</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -7846,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>1847.266666666667</v>
+        <v>1847.2666666666671</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -7858,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>166.0333333333334</v>
+        <v>166.03333333333339</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -7879,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="2">
-        <v>5551.999999999999</v>
+        <v>5551.9999999999991</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
@@ -7932,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>1847.266666666667</v>
+        <v>1847.2666666666671</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -7944,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>166.0333333333334</v>
+        <v>166.03333333333339</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -7965,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>5551.999999999999</v>
+        <v>5551.9999999999991</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -7996,30 +9525,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8029,38 +9559,38 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2">
-        <v>108243.5033688889</v>
+        <v>108243.50336888889</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="2">
-        <v>108243.5033688889</v>
+        <v>108243.50336888889</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2">
         <v>14704</v>
@@ -8068,7 +9598,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2">
         <v>726</v>
@@ -8076,7 +9606,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="5" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
@@ -8084,7 +9614,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
@@ -8092,7 +9622,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2">
         <v>15542</v>
@@ -8103,7 +9633,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2">
         <v>66700</v>
@@ -8111,7 +9641,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2">
         <v>66700</v>
@@ -8119,10 +9649,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2">
         <v>1215</v>
@@ -8130,7 +9660,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
@@ -8138,7 +9668,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>980</v>
@@ -8146,7 +9676,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2">
         <v>1152</v>
@@ -8154,7 +9684,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2">
         <v>1968</v>
@@ -8162,7 +9692,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2">
         <v>5375</v>
@@ -8170,10 +9700,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2">
         <v>528</v>
@@ -8181,7 +9711,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2">
         <v>48</v>
@@ -8189,7 +9719,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C27" s="2">
         <v>28</v>
@@ -8197,7 +9727,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2">
         <v>163</v>
@@ -8205,7 +9735,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C29" s="2">
         <v>767</v>
@@ -8213,10 +9743,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2">
         <v>1036</v>
@@ -8224,7 +9754,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="5" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2">
         <v>500</v>
@@ -8232,7 +9762,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2">
         <v>1536</v>
@@ -8240,10 +9770,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2">
         <v>780</v>
@@ -8251,7 +9781,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="5" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C34" s="2">
         <v>1050</v>
@@ -8259,7 +9789,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="5" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2">
         <v>60</v>
@@ -8267,7 +9797,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="5" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C36" s="2">
         <v>190</v>
@@ -8275,7 +9805,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="5" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C37" s="2">
         <v>75</v>
@@ -8283,7 +9813,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="5" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2">
         <v>200</v>
@@ -8291,7 +9821,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="5" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C39" s="2">
         <v>2456</v>
@@ -8299,7 +9829,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="5" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C40" s="2">
         <v>573</v>
@@ -8307,7 +9837,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2">
         <v>5384</v>
@@ -8318,7 +9848,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2">
         <v>1200</v>
@@ -8326,23 +9856,23 @@
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="5" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C43" s="2">
-        <v>1847.266666666667</v>
+        <v>1847.2666666666671</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="5" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C44" s="2">
-        <v>166.0333333333334</v>
+        <v>166.03333333333339</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2">
         <v>3213.3</v>
@@ -8353,7 +9883,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C46" s="2">
         <v>694</v>
@@ -8361,26 +9891,26 @@
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="5" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C47" s="2">
-        <v>5551.999999999999</v>
+        <v>5551.9999999999991</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C48" s="2">
-        <v>6245.999999999999</v>
+        <v>6245.9999999999991</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C49" s="2">
         <v>1894</v>
@@ -8388,7 +9918,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="2">
@@ -8396,6 +9926,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/case1_220324/output_v1.0_220324.xlsx
+++ b/case1_220324/output_v1.0_220324.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KP_Hong/Documents/PyPrjt/[lib]Financial_Model-CashFlow4/case1_220324/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9931E01-40AE-0E49-BF9D-98C5024DEE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="assumption" sheetId="1" r:id="rId1"/>
@@ -19,29 +13,17 @@
     <sheet name="financing" sheetId="4" r:id="rId4"/>
     <sheet name="financial_balance" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
   <si>
     <t>ASSUMPTION</t>
   </si>
   <si>
-    <t>Written at: 2022.03.24 21:00:00</t>
+    <t>Written at: 2022.03.24 23:56:33</t>
   </si>
   <si>
     <t>output_v1.0_220324.xlsx</t>
@@ -233,6 +215,9 @@
     <t>CASH FLOW</t>
   </si>
   <si>
+    <t>Written at: 2022.03.24 23:56:34</t>
+  </si>
+  <si>
     <t>운영_기초</t>
   </si>
   <si>
@@ -419,7 +404,7 @@
     <t>Financial Balance Table</t>
   </si>
   <si>
-    <t>Written at:2022.03.24 21:00:00</t>
+    <t>Written at:2022.03.24 23:56:34</t>
   </si>
   <si>
     <t>Sales</t>
@@ -434,7 +419,13 @@
     <t>Costs</t>
   </si>
   <si>
+    <t>9,074평 x 1620.3826148285286천원/평</t>
+  </si>
+  <si>
     <t>subtotal</t>
+  </si>
+  <si>
+    <t>16,327평 x 3,472천원/평</t>
   </si>
   <si>
     <t>fee</t>
@@ -458,16 +449,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -475,22 +467,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -517,29 +502,21 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,7 +558,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,27 +590,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -665,24 +624,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -858,14 +799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="12.6640625" customWidth="1"/>
+    <col min="1" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1024,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="C22" s="4">
         <v>0.08</v>
@@ -1035,7 +976,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -1046,10 +987,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="4">
-        <v>5.3230769230769227E-2</v>
+        <v>0.05323076923076923</v>
       </c>
       <c r="C24" s="4">
-        <v>8.9230769230769238E-2</v>
+        <v>0.08923076923076924</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1081,26 +1022,23 @@
         <v>23</v>
       </c>
       <c r="B29" s="4">
-        <v>6.6421899114612937E-2</v>
+        <v>0.06642189911461294</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="12.6640625" customWidth="1"/>
+    <col min="1" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1237,13 +1175,13 @@
         <v>12706.69</v>
       </c>
       <c r="K9" s="2">
-        <v>2302.9899999999998</v>
+        <v>2302.99</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>2302.9899999999998</v>
+        <v>2302.99</v>
       </c>
       <c r="N9" s="2">
         <v>15009.68</v>
@@ -1281,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>10035.219999999999</v>
+        <v>10035.22</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -1293,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>10035.219999999999</v>
+        <v>10035.22</v>
       </c>
       <c r="O10" s="2">
-        <v>10392.802989984701</v>
+        <v>10392.8029899847</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1331,19 +1269,19 @@
         <v>10727.41</v>
       </c>
       <c r="K11" s="2">
-        <v>2213.7399999999998</v>
+        <v>2213.74</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>2213.7399999999998</v>
+        <v>2213.74</v>
       </c>
       <c r="N11" s="2">
         <v>12941.15</v>
       </c>
       <c r="O11" s="2">
-        <v>11109.657658007671</v>
+        <v>11109.65765800767</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1407,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>672.06</v>
+        <v>672.0599999999999</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1422,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>5483.0400000000009</v>
+        <v>5483.040000000001</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -1434,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>5483.0400000000009</v>
+        <v>5483.040000000001</v>
       </c>
       <c r="O13" s="2">
-        <v>5678.4160692247606</v>
+        <v>5678.416069224761</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1448,43 +1386,43 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>22208.05</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>18007.93</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>672.06</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>4477.16</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>1358.69</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>1002.79</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>1731.67</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>49458.35</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>4516.7299999999996</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>4516.7299999999996</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>53975.080000000009</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>49427.315256271708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1531,7 +1469,7 @@
         <v>2608.84</v>
       </c>
       <c r="O15" s="2">
-        <v>901.99474372829627</v>
+        <v>901.9947437282963</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1598,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>870.96</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1610,22 +1548,22 @@
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>870.96</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>3587.19</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>3587.19</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>4458.1499999999996</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>901.99474372829627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1636,271 +1574,271 @@
         <v>34</v>
       </c>
       <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2">
         <v>22208.05</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>18007.93</v>
       </c>
-      <c r="E18" s="2">
-        <v>672.06</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E19" s="2">
+        <v>672.0599999999999</v>
+      </c>
+      <c r="F19" s="2">
         <v>5348.12</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>1358.69</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>1002.79</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I19" s="2">
         <v>1731.67</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J19" s="2">
         <v>50329.31</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="2">
         <v>8103.92</v>
       </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
         <v>8103.92</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N19" s="2">
         <v>58433.23</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O19" s="2">
         <v>50329.31</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22208.05</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18007.93</v>
+      </c>
+      <c r="E20" s="2">
+        <v>672.0599999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4477.16</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1358.69</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1002.79</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1731.67</v>
+      </c>
+      <c r="J20" s="2">
+        <v>49458.35</v>
+      </c>
+      <c r="K20" s="2">
+        <v>4516.73</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>4516.73</v>
+      </c>
+      <c r="N20" s="2">
+        <v>53975.08000000001</v>
+      </c>
+      <c r="O20" s="2">
+        <v>49427.31525627171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>870.96</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>870.96</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3587.19</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>3587.19</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4458.15</v>
+      </c>
+      <c r="O21" s="2">
+        <v>901.9947437282963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="C21" t="s">
+    <row r="24" spans="1:15">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24" t="s">
         <v>26</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G24" t="s">
         <v>26</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H24" t="s">
         <v>26</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I24" t="s">
         <v>26</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J24" t="s">
         <v>26</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K24" t="s">
         <v>35</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L24" t="s">
         <v>35</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M24" t="s">
         <v>35</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N24" t="s">
         <v>38</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="C22" t="s">
+    <row r="25" spans="1:15">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E25" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G25" t="s">
         <v>31</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H25" t="s">
         <v>32</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I25" t="s">
         <v>33</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J25" t="s">
         <v>34</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K25" t="s">
         <v>36</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L25" t="s">
         <v>37</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M25" t="s">
         <v>34</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N25" t="s">
         <v>34</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O25" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2565.58</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>487.2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>207.38</v>
-      </c>
-      <c r="H23" s="2">
-        <v>59.78</v>
-      </c>
-      <c r="I23" s="2">
-        <v>523.83000000000004</v>
-      </c>
-      <c r="J23" s="2">
-        <v>3843.77</v>
-      </c>
-      <c r="K23" s="2">
-        <v>696.65</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>696.65</v>
-      </c>
-      <c r="N23" s="2">
-        <v>4540.4199999999992</v>
-      </c>
-      <c r="O23" s="2">
-        <v>3438.238768514324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2881.81</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>87.44</v>
-      </c>
-      <c r="H24" s="2">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>3035.65</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>3035.65</v>
-      </c>
-      <c r="O24" s="2">
-        <v>3143.8187189047112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2621.46</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>476.93</v>
-      </c>
-      <c r="G25" s="2">
-        <v>73.75</v>
-      </c>
-      <c r="H25" s="2">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>3245.04</v>
-      </c>
-      <c r="K25" s="2">
-        <v>669.66</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>669.66</v>
-      </c>
-      <c r="N25" s="2">
-        <v>3914.7</v>
-      </c>
-      <c r="O25" s="2">
-        <v>3360.6698715578359</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1908,46 +1846,46 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2">
-        <v>2698.53</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>2565.58</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>390.21</v>
+        <v>487.2</v>
       </c>
       <c r="G26" s="2">
-        <v>22.92</v>
+        <v>207.38</v>
       </c>
       <c r="H26" s="2">
-        <v>66.400000000000006</v>
+        <v>59.78</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>523.83</v>
       </c>
       <c r="J26" s="2">
-        <v>3178.06</v>
+        <v>3843.77</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>696.65</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>0</v>
+        <v>696.65</v>
       </c>
       <c r="N26" s="2">
-        <v>3178.06</v>
+        <v>4540.419999999999</v>
       </c>
       <c r="O26" s="2">
-        <v>3291.3031864023551</v>
+        <v>3438.238768514324</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1955,31 +1893,31 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
-        <v>1397.94</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>2881.81</v>
       </c>
       <c r="E27" s="2">
-        <v>203.3</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>19.52</v>
+        <v>87.44</v>
       </c>
       <c r="H27" s="2">
-        <v>37.86</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>1658.62</v>
+        <v>3035.65</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -1991,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>1658.62</v>
+        <v>3035.65</v>
       </c>
       <c r="O27" s="2">
-        <v>1717.7212799728991</v>
+        <v>3143.818718904711</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2002,57 +1940,57 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2">
-        <v>6717.93</v>
+        <v>2621.46</v>
       </c>
       <c r="D28" s="2">
-        <v>5447.3899999999994</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>203.3</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>1354.34</v>
+        <v>476.93</v>
       </c>
       <c r="G28" s="2">
-        <v>411.01</v>
+        <v>73.75</v>
       </c>
       <c r="H28" s="2">
-        <v>303.33999999999997</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I28" s="2">
-        <v>523.83000000000004</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>14961.14</v>
+        <v>3245.04</v>
       </c>
       <c r="K28" s="2">
-        <v>1366.31</v>
+        <v>669.66</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>1366.31</v>
+        <v>669.66</v>
       </c>
       <c r="N28" s="2">
-        <v>16327.45</v>
+        <v>3914.7</v>
       </c>
       <c r="O28" s="2">
-        <v>14951.751825352119</v>
+        <v>3360.669871557836</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2">
-        <v>0</v>
+        <v>2698.53</v>
       </c>
       <c r="D29" s="2">
         <v>0</v>
@@ -2061,86 +1999,86 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>263.47000000000003</v>
+        <v>390.21</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>22.92</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>263.47000000000003</v>
+        <v>3178.06</v>
       </c>
       <c r="K29" s="2">
-        <v>525.71</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>525.71</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>789.18000000000006</v>
+        <v>3178.06</v>
       </c>
       <c r="O29" s="2">
-        <v>272.85817464787579</v>
+        <v>3291.303186402355</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>1397.94</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>203.3</v>
       </c>
       <c r="F30" s="2">
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>19.52</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>37.86</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>0</v>
+        <v>1658.62</v>
       </c>
       <c r="K30" s="2">
-        <v>559.41999999999996</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>559.41999999999996</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>559.41999999999996</v>
+        <v>1658.62</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
+        <v>1717.721279972899</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -2155,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>263.47000000000003</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -2167,385 +2105,632 @@
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>263.47000000000003</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>1085.1300000000001</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>1085.1300000000001</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>1348.6</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>272.85817464787579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>263.47</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>263.47</v>
+      </c>
+      <c r="K32" s="2">
+        <v>525.71</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>525.71</v>
+      </c>
+      <c r="N32" s="2">
+        <v>789.1800000000001</v>
+      </c>
+      <c r="O32" s="2">
+        <v>272.8581746478758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>559.42</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>559.42</v>
+      </c>
+      <c r="N33" s="2">
+        <v>559.42</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2">
         <v>6717.93</v>
       </c>
-      <c r="D32" s="2">
-        <v>5447.3899999999994</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D36" s="2">
+        <v>5447.389999999999</v>
+      </c>
+      <c r="E36" s="2">
         <v>203.3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F36" s="2">
         <v>1617.81</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G36" s="2">
         <v>411.01</v>
       </c>
-      <c r="H32" s="2">
-        <v>303.33999999999997</v>
-      </c>
-      <c r="I32" s="2">
-        <v>523.83000000000004</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="H36" s="2">
+        <v>303.34</v>
+      </c>
+      <c r="I36" s="2">
+        <v>523.83</v>
+      </c>
+      <c r="J36" s="2">
         <v>15224.61</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K36" s="2">
         <v>2451.44</v>
       </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
         <v>2451.44</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N36" s="2">
         <v>17676.05</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O36" s="2">
         <v>15224.61</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6717.93</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5447.389999999999</v>
+      </c>
+      <c r="E37" s="2">
+        <v>203.3</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1354.34</v>
+      </c>
+      <c r="G37" s="2">
+        <v>411.01</v>
+      </c>
+      <c r="H37" s="2">
+        <v>303.34</v>
+      </c>
+      <c r="I37" s="2">
+        <v>523.83</v>
+      </c>
+      <c r="J37" s="2">
+        <v>14961.14</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1366.31</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1366.31</v>
+      </c>
+      <c r="N37" s="2">
+        <v>16327.45</v>
+      </c>
+      <c r="O37" s="2">
+        <v>14951.75182535212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>263.47</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>263.47</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1085.13</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1085.13</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1348.6</v>
+      </c>
+      <c r="O38" s="2">
+        <v>272.8581746478758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="B35" t="s">
+    <row r="41" spans="1:15">
+      <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C41" t="s">
         <v>50</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D41" t="s">
         <v>51</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E41" t="s">
         <v>52</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F41" t="s">
         <v>53</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G41" t="s">
         <v>54</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H41" t="s">
         <v>55</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I41" t="s">
         <v>56</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J41" t="s">
         <v>57</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B42" s="2">
         <v>28000</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C42" s="2">
         <v>2000</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D42" s="2">
         <v>3438.238768514324</v>
       </c>
-      <c r="E36" s="2">
-        <v>96.270685518401066</v>
-      </c>
-      <c r="F36" s="2">
-        <v>6.8764775370286477</v>
-      </c>
-      <c r="G36" s="2">
-        <v>577.62411311040637</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="E42" s="2">
+        <v>96.27068551840107</v>
+      </c>
+      <c r="F42" s="2">
+        <v>6.876477537028648</v>
+      </c>
+      <c r="G42" s="2">
+        <v>577.6241131104064</v>
+      </c>
+      <c r="H42" s="2">
         <v>103.1471630554297</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I42" s="2">
         <v>1155.248226220813</v>
       </c>
-      <c r="J36" s="2">
-        <v>82.517730444343769</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1237.7659566651571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
+      <c r="J42" s="2">
+        <v>82.51773044434377</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1237.765956665157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B43" s="2">
         <v>28000</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C43" s="2">
         <v>2000</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D43" s="2">
         <v>3416.676893552587</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E43" s="2">
         <v>95.66695301947243</v>
       </c>
-      <c r="F37" s="2">
-        <v>6.8333537871051737</v>
-      </c>
-      <c r="G37" s="2">
-        <v>574.00171811683458</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="F43" s="2">
+        <v>6.833353787105174</v>
+      </c>
+      <c r="G43" s="2">
+        <v>574.0017181168346</v>
+      </c>
+      <c r="H43" s="2">
         <v>102.5003068065776</v>
       </c>
-      <c r="I37" s="2">
-        <v>1148.0034362336689</v>
-      </c>
-      <c r="J37" s="2">
-        <v>82.000245445262081</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1230.0036816789309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
+      <c r="I43" s="2">
+        <v>1148.003436233669</v>
+      </c>
+      <c r="J43" s="2">
+        <v>82.00024544526208</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1230.003681678931</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B44" s="2">
         <v>28000</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C44" s="2">
         <v>2000</v>
       </c>
-      <c r="D38" s="2">
-        <v>3360.6698715578359</v>
-      </c>
-      <c r="E38" s="2">
-        <v>94.098756403619404</v>
-      </c>
-      <c r="F38" s="2">
-        <v>6.7213397431156716</v>
-      </c>
-      <c r="G38" s="2">
-        <v>564.59253842171643</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="D44" s="2">
+        <v>3360.669871557836</v>
+      </c>
+      <c r="E44" s="2">
+        <v>94.0987564036194</v>
+      </c>
+      <c r="F44" s="2">
+        <v>6.721339743115672</v>
+      </c>
+      <c r="G44" s="2">
+        <v>564.5925384217164</v>
+      </c>
+      <c r="H44" s="2">
         <v>100.8200961467351</v>
       </c>
-      <c r="I38" s="2">
-        <v>1129.1850768434331</v>
-      </c>
-      <c r="J38" s="2">
-        <v>80.656076917388063</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="I44" s="2">
+        <v>1129.185076843433</v>
+      </c>
+      <c r="J44" s="2">
+        <v>80.65607691738806</v>
+      </c>
+      <c r="K44" s="2">
         <v>1209.841153760821</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B45" s="2">
         <v>28000</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C45" s="2">
         <v>2000</v>
       </c>
-      <c r="D39" s="2">
-        <v>3291.3031864023551</v>
-      </c>
-      <c r="E39" s="2">
-        <v>92.156489219265922</v>
-      </c>
-      <c r="F39" s="2">
-        <v>6.5826063728047099</v>
-      </c>
-      <c r="G39" s="2">
-        <v>552.93893531559547</v>
-      </c>
-      <c r="H39" s="2">
-        <v>98.739095592070626</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1105.8778706311909</v>
-      </c>
-      <c r="J39" s="2">
-        <v>78.991276473656512</v>
-      </c>
-      <c r="K39" s="2">
+      <c r="D45" s="2">
+        <v>3291.303186402355</v>
+      </c>
+      <c r="E45" s="2">
+        <v>92.15648921926592</v>
+      </c>
+      <c r="F45" s="2">
+        <v>6.58260637280471</v>
+      </c>
+      <c r="G45" s="2">
+        <v>552.9389353155955</v>
+      </c>
+      <c r="H45" s="2">
+        <v>98.73909559207063</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1105.877870631191</v>
+      </c>
+      <c r="J45" s="2">
+        <v>78.99127647365651</v>
+      </c>
+      <c r="K45" s="2">
         <v>1184.869147104848</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B46" s="2">
         <v>28000</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C46" s="2">
         <v>2000</v>
       </c>
-      <c r="D40" s="2">
-        <v>1717.7212799728991</v>
-      </c>
-      <c r="E40" s="2">
-        <v>48.096195839241183</v>
-      </c>
-      <c r="F40" s="2">
-        <v>3.4354425599457978</v>
-      </c>
-      <c r="G40" s="2">
-        <v>288.57717503544711</v>
-      </c>
-      <c r="H40" s="2">
-        <v>51.531638399186981</v>
-      </c>
-      <c r="I40" s="2">
-        <v>577.15435007089422</v>
-      </c>
-      <c r="J40" s="2">
-        <v>41.225310719349579</v>
-      </c>
-      <c r="K40" s="2">
-        <v>618.37966079024375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="D41" s="2">
-        <f>SUM(D36:D40)</f>
-        <v>15224.61</v>
-      </c>
-      <c r="E41" s="2">
-        <f>SUM(E36:E40)</f>
-        <v>426.28908000000001</v>
-      </c>
-      <c r="F41" s="2">
-        <f>SUM(F36:F40)</f>
-        <v>30.449220000000004</v>
-      </c>
-      <c r="G41" s="2">
-        <f>SUM(G36:G40)</f>
-        <v>2557.7344800000001</v>
-      </c>
-      <c r="H41" s="2">
-        <f>SUM(H36:H40)</f>
-        <v>456.73830000000004</v>
-      </c>
-      <c r="I41" s="2">
-        <f>SUM(I36:I40)</f>
-        <v>5115.4689600000002</v>
-      </c>
-      <c r="J41" s="2">
-        <f>SUM(J36:J40)</f>
-        <v>365.39064000000002</v>
-      </c>
-      <c r="K41" s="2">
-        <f>SUM(K36:K40)</f>
-        <v>5480.8596000000007</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1" t="s">
+      <c r="D46" s="2">
+        <v>1717.721279972899</v>
+      </c>
+      <c r="E46" s="2">
+        <v>48.09619583924118</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3.435442559945798</v>
+      </c>
+      <c r="G46" s="2">
+        <v>288.5771750354471</v>
+      </c>
+      <c r="H46" s="2">
+        <v>51.53163839918698</v>
+      </c>
+      <c r="I46" s="2">
+        <v>577.1543500708942</v>
+      </c>
+      <c r="J46" s="2">
+        <v>41.22531071934958</v>
+      </c>
+      <c r="K46" s="2">
+        <v>618.3796607902437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="2">
-        <v>5480.8596000000007</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2557.7344800000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="2">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4755.8596000000007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="4">
-        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5480.859600000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2557.73448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4755.859600000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="2">
-        <v>108243.50336888889</v>
+      <c r="B54" s="2">
+        <v>108243.5033688889</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -2555,7 +2740,7 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -2565,174 +2750,174 @@
     </row>
     <row r="6" spans="1:42">
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -3160,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O11" s="2">
         <v>10</v>
@@ -3178,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>357.17849999999999</v>
+        <v>357.1785</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -3241,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="AO11" s="2">
-        <v>710.51183333333336</v>
+        <v>710.5118333333334</v>
       </c>
       <c r="AP11" s="2">
-        <v>9297.4881666666661</v>
+        <v>9297.488166666666</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3252,7 +3437,7 @@
         <v>44712</v>
       </c>
       <c r="B12" s="2">
-        <v>9297.4881666666661</v>
+        <v>9297.488166666666</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -3288,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O12" s="2">
         <v>10</v>
@@ -3372,7 +3557,7 @@
         <v>1594.953833333333</v>
       </c>
       <c r="AP12" s="2">
-        <v>7702.5343333333331</v>
+        <v>7702.534333333333</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -3380,7 +3565,7 @@
         <v>44742</v>
       </c>
       <c r="B13" s="2">
-        <v>7702.5343333333331</v>
+        <v>7702.534333333333</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -3416,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O13" s="2">
         <v>10</v>
@@ -3434,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>1451.3920000000001</v>
+        <v>1451.392</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -3497,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AO13" s="2">
-        <v>1804.7253333333331</v>
+        <v>1804.725333333333</v>
       </c>
       <c r="AP13" s="2">
-        <v>5897.8089999999993</v>
+        <v>5897.808999999999</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -3508,7 +3693,7 @@
         <v>44773</v>
       </c>
       <c r="B14" s="2">
-        <v>5897.8089999999993</v>
+        <v>5897.808999999999</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -3544,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O14" s="2">
         <v>10</v>
@@ -3625,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>2178.9123333333332</v>
+        <v>2178.912333333333</v>
       </c>
       <c r="AP14" s="2">
-        <v>3718.8966666666661</v>
+        <v>3718.896666666666</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -3636,7 +3821,7 @@
         <v>44804</v>
       </c>
       <c r="B15" s="2">
-        <v>3718.8966666666661</v>
+        <v>3718.896666666666</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -3672,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O15" s="2">
         <v>10</v>
@@ -3690,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>2114.7235000000001</v>
+        <v>2114.7235</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3800,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O16" s="2">
         <v>10</v>
@@ -3818,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <v>2313.1559999999999</v>
+        <v>2313.156</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -3884,7 +4069,7 @@
         <v>2666.489333333333</v>
       </c>
       <c r="AP16" s="2">
-        <v>84.350499999999101</v>
+        <v>84.3504999999991</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -3892,7 +4077,7 @@
         <v>44865</v>
       </c>
       <c r="B17" s="2">
-        <v>84.350499999999101</v>
+        <v>84.3504999999991</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -3928,7 +4113,7 @@
         <v>5.5</v>
       </c>
       <c r="N17" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O17" s="2">
         <v>9.75</v>
@@ -3946,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <v>2415.2069999999999</v>
+        <v>2415.207</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -4009,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="2">
-        <v>2773.7903333333329</v>
+        <v>2773.790333333333</v>
       </c>
       <c r="AP17" s="2">
         <v>10.56016666666574</v>
@@ -4056,10 +4241,10 @@
         <v>15.4</v>
       </c>
       <c r="N18" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O18" s="2">
-        <v>9.2999999999999989</v>
+        <v>9.299999999999999</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -4074,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <v>2454.8935000000001</v>
+        <v>2454.8935</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -4140,7 +4325,7 @@
         <v>2822.926833333333</v>
       </c>
       <c r="AP18" s="2">
-        <v>87.633333333332303</v>
+        <v>87.6333333333323</v>
       </c>
     </row>
     <row r="19" spans="1:42">
@@ -4148,7 +4333,7 @@
         <v>44926</v>
       </c>
       <c r="B19" s="2">
-        <v>87.633333333332303</v>
+        <v>87.6333333333323</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -4181,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>26.033333333333331</v>
+        <v>26.03333333333333</v>
       </c>
       <c r="N19" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O19" s="2">
-        <v>8.8166666666666664</v>
+        <v>8.816666666666666</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
@@ -4202,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>2505.9189999999999</v>
+        <v>2505.919</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -4265,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="AO19" s="2">
-        <v>2884.1023333333342</v>
+        <v>2884.102333333334</v>
       </c>
       <c r="AP19" s="2">
-        <v>3.5309999999985848</v>
+        <v>3.530999999998585</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -4276,7 +4461,7 @@
         <v>44957</v>
       </c>
       <c r="B20" s="2">
-        <v>3.5309999999985848</v>
+        <v>3.530999999998585</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -4309,10 +4494,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="N20" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O20" s="2">
         <v>8.35</v>
@@ -4330,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <v>2619.3090000000002</v>
+        <v>2619.309</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -4393,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="AO20" s="2">
-        <v>3007.2923333333329</v>
+        <v>3007.292333333333</v>
       </c>
       <c r="AP20" s="2">
-        <v>96.238666666665267</v>
+        <v>96.23866666666527</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -4404,7 +4589,7 @@
         <v>44985</v>
       </c>
       <c r="B21" s="2">
-        <v>96.238666666665267</v>
+        <v>96.23866666666527</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -4437,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>47.666666666666657</v>
+        <v>47.66666666666666</v>
       </c>
       <c r="N21" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O21" s="2">
         <v>7.833333333333333</v>
@@ -4458,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="2">
-        <v>2789.3939999999998</v>
+        <v>2789.394</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -4521,10 +4706,10 @@
         <v>0</v>
       </c>
       <c r="AO21" s="2">
-        <v>3188.2273333333342</v>
+        <v>3188.227333333334</v>
       </c>
       <c r="AP21" s="2">
-        <v>8.0113333333315495</v>
+        <v>8.01133333333155</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -4532,7 +4717,7 @@
         <v>45016</v>
       </c>
       <c r="B22" s="2">
-        <v>8.0113333333315495</v>
+        <v>8.01133333333155</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -4565,13 +4750,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>59.033333333333331</v>
+        <v>59.03333333333333</v>
       </c>
       <c r="N22" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O22" s="2">
-        <v>7.3166666666666664</v>
+        <v>7.316666666666666</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
@@ -4586,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <v>2891.4450000000002</v>
+        <v>2891.445</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -4649,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="AO22" s="2">
-        <v>3301.1283333333331</v>
+        <v>3301.128333333333</v>
       </c>
       <c r="AP22" s="2">
-        <v>6.8829999999984466</v>
+        <v>6.882999999998447</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -4660,7 +4845,7 @@
         <v>45046</v>
       </c>
       <c r="B23" s="2">
-        <v>6.8829999999984466</v>
+        <v>6.882999999998447</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -4693,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>71.133333333333326</v>
+        <v>71.13333333333333</v>
       </c>
       <c r="N23" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O23" s="2">
-        <v>6.7666666666666666</v>
+        <v>6.766666666666667</v>
       </c>
       <c r="P23" s="2">
         <v>0</v>
@@ -4780,7 +4965,7 @@
         <v>3346.695333333334</v>
       </c>
       <c r="AP23" s="2">
-        <v>60.187666666664882</v>
+        <v>60.18766666666488</v>
       </c>
     </row>
     <row r="24" spans="1:42">
@@ -4788,7 +4973,7 @@
         <v>45077</v>
       </c>
       <c r="B24" s="2">
-        <v>60.187666666664882</v>
+        <v>60.18766666666488</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -4821,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="N24" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O24" s="2">
         <v>6.2</v>
@@ -4905,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="2">
-        <v>3364.2648333333332</v>
+        <v>3364.264833333333</v>
       </c>
       <c r="AP24" s="2">
         <v>95.92283333333171</v>
@@ -4949,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>96.066666666666663</v>
+        <v>96.06666666666666</v>
       </c>
       <c r="N25" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O25" s="2">
-        <v>5.6333333333333329</v>
+        <v>5.633333333333333</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -5033,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="2">
-        <v>3376.1648333333328</v>
+        <v>3376.164833333333</v>
       </c>
       <c r="AP25" s="2">
         <v>19.75799999999845</v>
@@ -5080,7 +5265,7 @@
         <v>108.1666666666667</v>
       </c>
       <c r="N26" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O26" s="2">
         <v>5.083333333333333</v>
@@ -5098,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <v>2953.8094999999998</v>
+        <v>2953.8095</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
@@ -5161,10 +5346,10 @@
         <v>0</v>
       </c>
       <c r="AO26" s="2">
-        <v>3410.3928333333329</v>
+        <v>3410.392833333333</v>
       </c>
       <c r="AP26" s="2">
-        <v>9.3651666666651181</v>
+        <v>9.365166666665118</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -5172,7 +5357,7 @@
         <v>45169</v>
       </c>
       <c r="B27" s="2">
-        <v>9.3651666666651181</v>
+        <v>9.365166666665118</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -5208,10 +5393,10 @@
         <v>120.6333333333333</v>
       </c>
       <c r="N27" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O27" s="2">
-        <v>4.5166666666666666</v>
+        <v>4.516666666666667</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -5226,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>2965.1484999999998</v>
+        <v>2965.1485</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -5289,10 +5474,10 @@
         <v>0</v>
       </c>
       <c r="AO27" s="2">
-        <v>3433.6318333333329</v>
+        <v>3433.631833333333</v>
       </c>
       <c r="AP27" s="2">
-        <v>75.733333333331757</v>
+        <v>75.73333333333176</v>
       </c>
     </row>
     <row r="28" spans="1:42">
@@ -5300,7 +5485,7 @@
         <v>45199</v>
       </c>
       <c r="B28" s="2">
-        <v>75.733333333331757</v>
+        <v>75.73333333333176</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -5336,10 +5521,10 @@
         <v>133.4666666666667</v>
       </c>
       <c r="N28" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O28" s="2">
-        <v>3.9333333333333331</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
@@ -5417,10 +5602,10 @@
         <v>0</v>
       </c>
       <c r="AO28" s="2">
-        <v>3576.2803333333341</v>
+        <v>3576.280333333334</v>
       </c>
       <c r="AP28" s="2">
-        <v>99.452999999998156</v>
+        <v>99.45299999999816</v>
       </c>
     </row>
     <row r="29" spans="1:42">
@@ -5428,7 +5613,7 @@
         <v>45230</v>
       </c>
       <c r="B29" s="2">
-        <v>99.452999999998156</v>
+        <v>99.45299999999816</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -5461,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>146.66666666666671</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="N29" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O29" s="2">
         <v>3.333333333333333</v>
@@ -5592,10 +5777,10 @@
         <v>159.1333333333333</v>
       </c>
       <c r="N30" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O30" s="2">
-        <v>2.7666666666666671</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -5610,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="2">
-        <v>2437.8850000000002</v>
+        <v>2437.885</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
@@ -5673,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="AO30" s="2">
-        <v>2943.1183333333329</v>
+        <v>2943.118333333333</v>
       </c>
       <c r="AP30" s="2">
-        <v>58.166333333331288</v>
+        <v>58.16633333333129</v>
       </c>
     </row>
     <row r="31" spans="1:42">
@@ -5684,7 +5869,7 @@
         <v>45291</v>
       </c>
       <c r="B31" s="2">
-        <v>58.166333333331288</v>
+        <v>58.16633333333129</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -5720,10 +5905,10 @@
         <v>170.1333333333333</v>
       </c>
       <c r="N31" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O31" s="2">
-        <v>2.2666666666666671</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -5804,7 +5989,7 @@
         <v>2641.795833333334</v>
       </c>
       <c r="AP31" s="2">
-        <v>16.370499999997719</v>
+        <v>16.37049999999772</v>
       </c>
     </row>
     <row r="32" spans="1:42">
@@ -5812,7 +5997,7 @@
         <v>45322</v>
       </c>
       <c r="B32" s="2">
-        <v>16.370499999997719</v>
+        <v>16.37049999999772</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -5845,10 +6030,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>179.66666666666671</v>
+        <v>179.6666666666667</v>
       </c>
       <c r="N32" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O32" s="2">
         <v>1.833333333333333</v>
@@ -5932,7 +6117,7 @@
         <v>2650.895833333333</v>
       </c>
       <c r="AP32" s="2">
-        <v>65.474666666664234</v>
+        <v>65.47466666666423</v>
       </c>
     </row>
     <row r="33" spans="1:42">
@@ -5940,7 +6125,7 @@
         <v>45351</v>
       </c>
       <c r="B33" s="2">
-        <v>65.474666666664234</v>
+        <v>65.47466666666423</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -5973,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>189.56666666666669</v>
+        <v>189.5666666666667</v>
       </c>
       <c r="N33" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O33" s="2">
-        <v>1.3833333333333331</v>
+        <v>1.383333333333333</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -5994,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>2114.7235000000001</v>
+        <v>2114.7235</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -6057,10 +6242,10 @@
         <v>0</v>
       </c>
       <c r="AO33" s="2">
-        <v>2649.0068333333329</v>
+        <v>2649.006833333333</v>
       </c>
       <c r="AP33" s="2">
-        <v>16.467833333330869</v>
+        <v>16.46783333333087</v>
       </c>
     </row>
     <row r="34" spans="1:42">
@@ -6068,7 +6253,7 @@
         <v>45382</v>
       </c>
       <c r="B34" s="2">
-        <v>16.467833333330869</v>
+        <v>16.46783333333087</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -6080,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>108243.50336888889</v>
+        <v>108243.5033688889</v>
       </c>
       <c r="G34" s="2">
         <v>60000</v>
@@ -6089,7 +6274,7 @@
         <v>34700</v>
       </c>
       <c r="I34" s="2">
-        <v>19243.503368888909</v>
+        <v>19243.50336888891</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -6104,7 +6289,7 @@
         <v>199.1</v>
       </c>
       <c r="N34" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="O34" s="2">
         <v>0.95</v>
@@ -6185,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="2">
-        <v>16143.767833333341</v>
+        <v>16143.76783333334</v>
       </c>
       <c r="AP34" s="2">
         <v>3116.203368888906</v>
@@ -6704,20 +6889,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -6727,7 +6911,7 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -6737,125 +6921,125 @@
     </row>
     <row r="6" spans="1:28">
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="V7" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="AB8" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -7169,10 +7353,10 @@
         <v>-34700</v>
       </c>
       <c r="R12" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S12" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -7255,10 +7439,10 @@
         <v>-34700</v>
       </c>
       <c r="R13" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S13" s="2">
-        <v>462.66666666666669</v>
+        <v>462.6666666666667</v>
       </c>
       <c r="T13" s="2">
         <v>0</v>
@@ -7341,7 +7525,7 @@
         <v>-34700</v>
       </c>
       <c r="R14" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S14" s="2">
         <v>694</v>
@@ -7427,10 +7611,10 @@
         <v>-34700</v>
       </c>
       <c r="R15" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S15" s="2">
-        <v>925.33333333333337</v>
+        <v>925.3333333333334</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
@@ -7513,7 +7697,7 @@
         <v>-34700</v>
       </c>
       <c r="R16" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S16" s="2">
         <v>1156.666666666667</v>
@@ -7599,7 +7783,7 @@
         <v>-34700</v>
       </c>
       <c r="R17" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S17" s="2">
         <v>1388</v>
@@ -7685,7 +7869,7 @@
         <v>-34700</v>
       </c>
       <c r="R18" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S18" s="2">
         <v>1619.333333333333</v>
@@ -7750,7 +7934,7 @@
         <v>1200</v>
       </c>
       <c r="K19" s="2">
-        <v>9.2999999999999989</v>
+        <v>9.299999999999999</v>
       </c>
       <c r="L19" s="2">
         <v>89.05</v>
@@ -7771,7 +7955,7 @@
         <v>-34700</v>
       </c>
       <c r="R19" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S19" s="2">
         <v>1850.666666666667</v>
@@ -7824,7 +8008,7 @@
         <v>-9900</v>
       </c>
       <c r="G20" s="2">
-        <v>26.033333333333331</v>
+        <v>26.03333333333333</v>
       </c>
       <c r="H20" s="2">
         <v>46.93333333333333</v>
@@ -7836,7 +8020,7 @@
         <v>1200</v>
       </c>
       <c r="K20" s="2">
-        <v>8.8166666666666664</v>
+        <v>8.816666666666666</v>
       </c>
       <c r="L20" s="2">
         <v>97.86666666666666</v>
@@ -7857,7 +8041,7 @@
         <v>-34700</v>
       </c>
       <c r="R20" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S20" s="2">
         <v>2082</v>
@@ -7910,7 +8094,7 @@
         <v>-13000</v>
       </c>
       <c r="G21" s="2">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="H21" s="2">
         <v>83.23333333333332</v>
@@ -7943,7 +8127,7 @@
         <v>-34700</v>
       </c>
       <c r="R21" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S21" s="2">
         <v>2313.333333333333</v>
@@ -7996,7 +8180,7 @@
         <v>-16100</v>
       </c>
       <c r="G22" s="2">
-        <v>47.666666666666657</v>
+        <v>47.66666666666666</v>
       </c>
       <c r="H22" s="2">
         <v>130.9</v>
@@ -8029,7 +8213,7 @@
         <v>-34700</v>
       </c>
       <c r="R22" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S22" s="2">
         <v>2544.666666666667</v>
@@ -8082,10 +8266,10 @@
         <v>-19400</v>
       </c>
       <c r="G23" s="2">
-        <v>59.033333333333331</v>
+        <v>59.03333333333333</v>
       </c>
       <c r="H23" s="2">
-        <v>189.93333333333331</v>
+        <v>189.9333333333333</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -8094,7 +8278,7 @@
         <v>1200</v>
       </c>
       <c r="K23" s="2">
-        <v>7.3166666666666664</v>
+        <v>7.316666666666666</v>
       </c>
       <c r="L23" s="2">
         <v>121.3666666666666</v>
@@ -8115,7 +8299,7 @@
         <v>-34700</v>
       </c>
       <c r="R23" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S23" s="2">
         <v>2776</v>
@@ -8168,10 +8352,10 @@
         <v>-22800</v>
       </c>
       <c r="G24" s="2">
-        <v>71.133333333333326</v>
+        <v>71.13333333333333</v>
       </c>
       <c r="H24" s="2">
-        <v>261.06666666666661</v>
+        <v>261.0666666666666</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -8180,7 +8364,7 @@
         <v>1200</v>
       </c>
       <c r="K24" s="2">
-        <v>6.7666666666666666</v>
+        <v>6.766666666666667</v>
       </c>
       <c r="L24" s="2">
         <v>128.1333333333333</v>
@@ -8201,10 +8385,10 @@
         <v>-34700</v>
       </c>
       <c r="R24" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S24" s="2">
-        <v>3007.3333333333339</v>
+        <v>3007.333333333334</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -8254,10 +8438,10 @@
         <v>-26200</v>
       </c>
       <c r="G25" s="2">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H25" s="2">
-        <v>344.66666666666657</v>
+        <v>344.6666666666666</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -8269,7 +8453,7 @@
         <v>6.2</v>
       </c>
       <c r="L25" s="2">
-        <v>134.33333333333329</v>
+        <v>134.3333333333333</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -8287,7 +8471,7 @@
         <v>-34700</v>
       </c>
       <c r="R25" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S25" s="2">
         <v>3238.666666666667</v>
@@ -8340,10 +8524,10 @@
         <v>-29500</v>
       </c>
       <c r="G26" s="2">
-        <v>96.066666666666663</v>
+        <v>96.06666666666666</v>
       </c>
       <c r="H26" s="2">
-        <v>440.73333333333329</v>
+        <v>440.7333333333333</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -8352,10 +8536,10 @@
         <v>1200</v>
       </c>
       <c r="K26" s="2">
-        <v>5.6333333333333329</v>
+        <v>5.633333333333333</v>
       </c>
       <c r="L26" s="2">
-        <v>139.96666666666661</v>
+        <v>139.9666666666666</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -8373,10 +8557,10 @@
         <v>-34700</v>
       </c>
       <c r="R26" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S26" s="2">
-        <v>3470.0000000000009</v>
+        <v>3470.000000000001</v>
       </c>
       <c r="T26" s="2">
         <v>0</v>
@@ -8441,7 +8625,7 @@
         <v>5.083333333333333</v>
       </c>
       <c r="L27" s="2">
-        <v>145.05000000000001</v>
+        <v>145.05</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -8459,10 +8643,10 @@
         <v>-34700</v>
       </c>
       <c r="R27" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S27" s="2">
-        <v>3701.3333333333339</v>
+        <v>3701.333333333334</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
@@ -8524,10 +8708,10 @@
         <v>1200</v>
       </c>
       <c r="K28" s="2">
-        <v>4.5166666666666666</v>
+        <v>4.516666666666667</v>
       </c>
       <c r="L28" s="2">
-        <v>149.56666666666669</v>
+        <v>149.5666666666667</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
@@ -8545,10 +8729,10 @@
         <v>-34700</v>
       </c>
       <c r="R28" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S28" s="2">
-        <v>3932.6666666666679</v>
+        <v>3932.666666666668</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
@@ -8610,7 +8794,7 @@
         <v>1200</v>
       </c>
       <c r="K29" s="2">
-        <v>3.9333333333333331</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="L29" s="2">
         <v>153.5</v>
@@ -8631,10 +8815,10 @@
         <v>-34700</v>
       </c>
       <c r="R29" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S29" s="2">
-        <v>4164.0000000000009</v>
+        <v>4164.000000000001</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
@@ -8684,10 +8868,10 @@
         <v>-43400</v>
       </c>
       <c r="G30" s="2">
-        <v>146.66666666666671</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="H30" s="2">
-        <v>949.66666666666663</v>
+        <v>949.6666666666666</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -8699,7 +8883,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="L30" s="2">
-        <v>156.83333333333329</v>
+        <v>156.8333333333333</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -8717,10 +8901,10 @@
         <v>-34700</v>
       </c>
       <c r="R30" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S30" s="2">
-        <v>4395.3333333333339</v>
+        <v>4395.333333333334</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
@@ -8782,7 +8966,7 @@
         <v>1200</v>
       </c>
       <c r="K31" s="2">
-        <v>2.7666666666666671</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="L31" s="2">
         <v>159.6</v>
@@ -8803,7 +8987,7 @@
         <v>-34700</v>
       </c>
       <c r="R31" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S31" s="2">
         <v>4626.666666666667</v>
@@ -8859,7 +9043,7 @@
         <v>170.1333333333333</v>
       </c>
       <c r="H32" s="2">
-        <v>1278.9333333333329</v>
+        <v>1278.933333333333</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -8868,7 +9052,7 @@
         <v>1200</v>
       </c>
       <c r="K32" s="2">
-        <v>2.2666666666666671</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="L32" s="2">
         <v>161.8666666666667</v>
@@ -8889,7 +9073,7 @@
         <v>-34700</v>
       </c>
       <c r="R32" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S32" s="2">
         <v>4858</v>
@@ -8942,7 +9126,7 @@
         <v>-51700</v>
       </c>
       <c r="G33" s="2">
-        <v>179.66666666666671</v>
+        <v>179.6666666666667</v>
       </c>
       <c r="H33" s="2">
         <v>1458.6</v>
@@ -8957,7 +9141,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="L33" s="2">
-        <v>163.69999999999999</v>
+        <v>163.7</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -8975,7 +9159,7 @@
         <v>-34700</v>
       </c>
       <c r="R33" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S33" s="2">
         <v>5089.333333333333</v>
@@ -9028,7 +9212,7 @@
         <v>-54300</v>
       </c>
       <c r="G34" s="2">
-        <v>189.56666666666669</v>
+        <v>189.5666666666667</v>
       </c>
       <c r="H34" s="2">
         <v>1648.166666666667</v>
@@ -9040,7 +9224,7 @@
         <v>1200</v>
       </c>
       <c r="K34" s="2">
-        <v>1.3833333333333331</v>
+        <v>1.383333333333333</v>
       </c>
       <c r="L34" s="2">
         <v>165.0833333333334</v>
@@ -9061,10 +9245,10 @@
         <v>-34700</v>
       </c>
       <c r="R34" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S34" s="2">
-        <v>5320.6666666666661</v>
+        <v>5320.666666666666</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -9117,7 +9301,7 @@
         <v>199.1</v>
       </c>
       <c r="H35" s="2">
-        <v>1847.2666666666671</v>
+        <v>1847.266666666667</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -9129,7 +9313,7 @@
         <v>0.95</v>
       </c>
       <c r="L35" s="2">
-        <v>166.03333333333339</v>
+        <v>166.0333333333334</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -9147,10 +9331,10 @@
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <v>231.33333333333329</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="S35" s="2">
-        <v>5551.9999999999991</v>
+        <v>5551.999999999999</v>
       </c>
       <c r="T35" s="2">
         <v>0</v>
@@ -9203,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>1847.2666666666671</v>
+        <v>1847.266666666667</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -9215,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>166.03333333333339</v>
+        <v>166.0333333333334</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -9236,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="2">
-        <v>5551.9999999999991</v>
+        <v>5551.999999999999</v>
       </c>
       <c r="T36" s="2">
         <v>0</v>
@@ -9289,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>1847.2666666666671</v>
+        <v>1847.266666666667</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -9301,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>166.03333333333339</v>
+        <v>166.0333333333334</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -9322,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="2">
-        <v>5551.9999999999991</v>
+        <v>5551.999999999999</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
@@ -9375,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>1847.2666666666671</v>
+        <v>1847.266666666667</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -9387,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>166.03333333333339</v>
+        <v>166.0333333333334</v>
       </c>
       <c r="M38" s="2">
         <v>0</v>
@@ -9408,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="2">
-        <v>5551.9999999999991</v>
+        <v>5551.999999999999</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
@@ -9461,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>1847.2666666666671</v>
+        <v>1847.266666666667</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -9473,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>166.03333333333339</v>
+        <v>166.0333333333334</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -9494,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>5551.9999999999991</v>
+        <v>5551.999999999999</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -9525,244 +9709,249 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2">
-        <v>108243.50336888889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>108243.5033688889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="2">
-        <v>108243.50336888889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>108243.5033688889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2">
         <v>14704</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2">
         <v>726</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="B14" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="B15" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2">
         <v>15542</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2">
         <v>66700</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="B18" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2">
         <v>66700</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2">
         <v>1215</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="B20" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="B21" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="B22" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2">
         <v>1152</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="B23" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2">
         <v>1968</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="B24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" s="2">
         <v>5375</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2">
         <v>528</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="B26" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="B27" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2">
         <v>767</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2">
         <v>1036</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="B31" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C32" s="2">
         <v>1536</v>
@@ -9770,10 +9959,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33" s="2">
         <v>780</v>
@@ -9781,7 +9970,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="2">
         <v>1050</v>
@@ -9789,7 +9978,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" s="2">
         <v>60</v>
@@ -9797,7 +9986,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="2">
         <v>190</v>
@@ -9805,7 +9994,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="2">
         <v>75</v>
@@ -9813,7 +10002,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="B38" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="2">
         <v>200</v>
@@ -9821,7 +10010,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" s="2">
         <v>2456</v>
@@ -9829,7 +10018,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="2">
         <v>573</v>
@@ -9837,7 +10026,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C41" s="2">
         <v>5384</v>
@@ -9848,7 +10037,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C42" s="2">
         <v>1200</v>
@@ -9856,23 +10045,23 @@
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C43" s="2">
-        <v>1847.2666666666671</v>
+        <v>1847.266666666667</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C44" s="2">
-        <v>166.03333333333339</v>
+        <v>166.0333333333334</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C45" s="2">
         <v>3213.3</v>
@@ -9883,7 +10072,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2">
         <v>694</v>
@@ -9891,26 +10080,26 @@
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2">
-        <v>5551.9999999999991</v>
+        <v>5551.999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2">
-        <v>6245.9999999999991</v>
+        <v>6245.999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C49" s="2">
         <v>1894</v>
@@ -9918,7 +10107,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="2">
@@ -9926,7 +10115,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>